--- a/ConsoleAppFSharp/Output_20241007.xlsx
+++ b/ConsoleAppFSharp/Output_20241007.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 9.3.12.102"/>
+  <fileVersion appName="SpreadsheetGear 8.4.4.102"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27800" windowHeight="12460"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Cost</t>
   </si>
@@ -34,6 +34,9 @@
     <t>ID-15</t>
   </si>
   <si>
+    <t>ID-22</t>
+  </si>
+  <si>
     <t>ID-19</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>ID-16</t>
   </si>
   <si>
+    <t>ID-23</t>
+  </si>
+  <si>
     <t>ID-09</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>ID-14</t>
+  </si>
+  <si>
+    <t>ID-21</t>
   </si>
 </sst>
 </file>
@@ -111,28 +120,139 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,20 +260,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,9 +305,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,130 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,7 +395,33 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -354,26 +432,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,13 +520,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales Report'!$B$3:$B$22</c:f>
+              <c:f>'Sales Report'!$B$3:$B$25</c:f>
               <c:strCache/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales Report'!$C$3:$C$22</c:f>
+              <c:f>'Sales Report'!$C$3:$C$25</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -446,13 +543,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales Report'!$B$3:$B$22</c:f>
+              <c:f>'Sales Report'!$B$3:$B$25</c:f>
               <c:strCache/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales Report'!$D$3:$D$22</c:f>
+              <c:f>'Sales Report'!$D$3:$D$25</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -469,13 +566,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales Report'!$B$3:$B$22</c:f>
+              <c:f>'Sales Report'!$B$3:$B$25</c:f>
               <c:strCache/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales Report'!$E$3:$E$22</c:f>
+              <c:f>'Sales Report'!$E$3:$E$25</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -543,16 +640,16 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>614797</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166370</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -828,440 +925,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.95703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.65625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.55859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.96875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.90234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="18.5">
+    <row ht="20.8">
+      <c s="5" t="s">
+        <v>10</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="1"/>
       <c s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c s="3"/>
       <c s="3"/>
       <c s="3"/>
       <c s="3"/>
-      <c r="G1" s="1" t="s">
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row ht="16.9">
+      <c s="6" t="s">
+        <v>8</v>
+      </c>
+      <c s="6" t="s">
+        <v>24</v>
+      </c>
+      <c s="6" t="s">
+        <v>25</v>
+      </c>
+      <c s="6" t="s">
+        <v>0</v>
+      </c>
+      <c s="6" t="s">
+        <v>9</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>1</v>
+      </c>
+      <c s="13" t="s">
+        <v>11</v>
+      </c>
+      <c s="16">
+        <v>500000</v>
+      </c>
+      <c s="15">
+        <v>350000</v>
+      </c>
+      <c s="15">
+        <v>150000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>2</v>
+      </c>
+      <c s="13" t="s">
+        <v>18</v>
+      </c>
+      <c s="16">
+        <v>400000</v>
+      </c>
+      <c s="15">
+        <v>280000</v>
+      </c>
+      <c s="15">
+        <v>120000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>3</v>
+      </c>
+      <c s="13" t="s">
+        <v>26</v>
+      </c>
+      <c s="16">
+        <v>600000</v>
+      </c>
+      <c s="15">
+        <v>420000</v>
+      </c>
+      <c s="15">
+        <v>180000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>4</v>
+      </c>
+      <c s="13" t="s">
+        <v>2</v>
+      </c>
+      <c s="16">
+        <v>700000</v>
+      </c>
+      <c s="15">
+        <v>490000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>5</v>
+      </c>
+      <c s="13" t="s">
+        <v>12</v>
+      </c>
+      <c s="16">
+        <v>650000</v>
+      </c>
+      <c s="15">
+        <v>455000</v>
+      </c>
+      <c s="15">
+        <v>195000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>6</v>
+      </c>
+      <c s="13" t="s">
+        <v>19</v>
+      </c>
+      <c s="16">
+        <v>750000</v>
+      </c>
+      <c s="15">
+        <v>525000</v>
+      </c>
+      <c s="15">
+        <v>225000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>7</v>
+      </c>
+      <c s="13" t="s">
+        <v>27</v>
+      </c>
+      <c s="16">
+        <v>300000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="15">
+        <v>90000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>8</v>
+      </c>
+      <c s="13" t="s">
+        <v>3</v>
+      </c>
+      <c s="16">
+        <v>550000</v>
+      </c>
+      <c s="15">
+        <v>385000</v>
+      </c>
+      <c s="15">
+        <v>165000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>9</v>
+      </c>
+      <c s="13" t="s">
+        <v>16</v>
+      </c>
+      <c s="16">
+        <v>800000</v>
+      </c>
+      <c s="15">
+        <v>560000</v>
+      </c>
+      <c s="15">
+        <v>240000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>10</v>
+      </c>
+      <c s="13" t="s">
+        <v>28</v>
+      </c>
+      <c s="16">
+        <v>350000</v>
+      </c>
+      <c s="15">
+        <v>245000</v>
+      </c>
+      <c s="15">
+        <v>105000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>11</v>
+      </c>
+      <c s="13" t="s">
+        <v>4</v>
+      </c>
+      <c s="16">
+        <v>700000</v>
+      </c>
+      <c s="15">
+        <v>490000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>12</v>
+      </c>
+      <c s="13" t="s">
+        <v>13</v>
+      </c>
+      <c s="16">
+        <v>600000</v>
+      </c>
+      <c s="15">
+        <v>420000</v>
+      </c>
+      <c s="15">
+        <v>180000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>13</v>
+      </c>
+      <c s="13" t="s">
+        <v>20</v>
+      </c>
+      <c s="16">
+        <v>750000</v>
+      </c>
+      <c s="15">
+        <v>525000</v>
+      </c>
+      <c s="15">
+        <v>225000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>14</v>
+      </c>
+      <c s="13" t="s">
+        <v>29</v>
+      </c>
+      <c s="16">
+        <v>400000</v>
+      </c>
+      <c s="15">
+        <v>280000</v>
+      </c>
+      <c s="15">
+        <v>120000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
         <v>15</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c r="K1" s="1" t="s">
+      <c s="13" t="s">
+        <v>5</v>
+      </c>
+      <c s="16">
+        <v>450000</v>
+      </c>
+      <c s="15">
+        <v>315000</v>
+      </c>
+      <c s="15">
+        <v>135000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>16</v>
+      </c>
+      <c s="13" t="s">
+        <v>14</v>
+      </c>
+      <c s="16">
+        <v>500000</v>
+      </c>
+      <c s="15">
+        <v>350000</v>
+      </c>
+      <c s="15">
+        <v>150000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>17</v>
+      </c>
+      <c s="13" t="s">
         <v>21</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row ht="16.45">
-      <c s="2" t="s">
+      <c s="16">
+        <v>600000</v>
+      </c>
+      <c s="15">
+        <v>420000</v>
+      </c>
+      <c s="15">
+        <v>180000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>18</v>
+      </c>
+      <c s="13" t="s">
+        <v>1</v>
+      </c>
+      <c s="16">
+        <v>550000</v>
+      </c>
+      <c s="15">
+        <v>385000</v>
+      </c>
+      <c s="15">
+        <v>165000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>19</v>
+      </c>
+      <c s="13" t="s">
         <v>7</v>
       </c>
-      <c s="2" t="s">
+      <c s="16">
+        <v>700000</v>
+      </c>
+      <c s="15">
+        <v>490000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>20</v>
+      </c>
+      <c s="13" t="s">
         <v>22</v>
       </c>
-      <c s="2" t="s">
+      <c s="16">
+        <v>300000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="15">
+        <v>90000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>21</v>
+      </c>
+      <c s="13" t="s">
+        <v>30</v>
+      </c>
+      <c s="16">
+        <v>300000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="15">
+        <v>90000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
+        <v>22</v>
+      </c>
+      <c s="13" t="s">
+        <v>6</v>
+      </c>
+      <c s="16">
+        <v>300000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="15">
+        <v>90000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="17.55">
+      <c s="13">
         <v>23</v>
       </c>
-      <c s="2" t="s">
-        <v>0</v>
-      </c>
-      <c s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c s="7" t="s">
-        <v>0</v>
-      </c>
-      <c s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>1</v>
-      </c>
-      <c s="8" t="s">
-        <v>10</v>
-      </c>
-      <c s="5">
-        <v>500000</v>
-      </c>
-      <c s="5">
-        <v>350000</v>
-      </c>
-      <c s="5">
-        <v>150000</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="0" ref="G3:I3">SUM(C3:C22)</f>
-        <v>11150000</v>
-      </c>
-      <c s="4">
+      <c s="13" t="s">
+        <v>15</v>
+      </c>
+      <c s="16">
+        <v>300000</v>
+      </c>
+      <c s="15">
+        <v>210000</v>
+      </c>
+      <c s="15">
+        <v>90000</v>
+      </c>
+      <c s="1"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="19.2">
+      <c s="18" t="s">
+        <v>17</v>
+      </c>
+      <c s="17"/>
+      <c s="9">
+        <f t="shared" si="0" ref="C26:E26">SUM(C3:C25)</f>
+        <v>12050000</v>
+      </c>
+      <c s="9">
         <f t="shared" si="0"/>
-        <v>7805000</v>
-      </c>
-      <c s="4">
+        <v>8435000</v>
+      </c>
+      <c s="9">
         <f t="shared" si="0"/>
-        <v>3345000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>2</v>
-      </c>
-      <c s="8" t="s">
-        <v>16</v>
-      </c>
-      <c s="5">
-        <v>400000</v>
-      </c>
-      <c s="5">
-        <v>280000</v>
-      </c>
-      <c s="5">
-        <v>120000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>3</v>
-      </c>
-      <c s="8" t="s">
-        <v>24</v>
-      </c>
-      <c s="5">
-        <v>600000</v>
-      </c>
-      <c s="5">
-        <v>420000</v>
-      </c>
-      <c s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>4</v>
-      </c>
-      <c s="8" t="s">
-        <v>2</v>
-      </c>
-      <c s="5">
-        <v>700000</v>
-      </c>
-      <c s="5">
-        <v>490000</v>
-      </c>
-      <c s="5">
-        <v>210000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>5</v>
-      </c>
-      <c s="8" t="s">
-        <v>11</v>
-      </c>
-      <c s="5">
-        <v>650000</v>
-      </c>
-      <c s="5">
-        <v>455000</v>
-      </c>
-      <c s="5">
-        <v>195000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>6</v>
-      </c>
-      <c s="8" t="s">
-        <v>17</v>
-      </c>
-      <c s="5">
-        <v>750000</v>
-      </c>
-      <c s="5">
-        <v>525000</v>
-      </c>
-      <c s="5">
-        <v>225000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>7</v>
-      </c>
-      <c s="8" t="s">
-        <v>25</v>
-      </c>
-      <c s="5">
-        <v>300000</v>
-      </c>
-      <c s="5">
-        <v>210000</v>
-      </c>
-      <c s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>8</v>
-      </c>
-      <c s="8" t="s">
-        <v>3</v>
-      </c>
-      <c s="5">
-        <v>550000</v>
-      </c>
-      <c s="5">
-        <v>385000</v>
-      </c>
-      <c s="5">
-        <v>165000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>9</v>
-      </c>
-      <c s="8" t="s">
-        <v>14</v>
-      </c>
-      <c s="5">
-        <v>800000</v>
-      </c>
-      <c s="5">
-        <v>560000</v>
-      </c>
-      <c s="5">
-        <v>240000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>10</v>
-      </c>
-      <c s="8" t="s">
-        <v>26</v>
-      </c>
-      <c s="5">
-        <v>350000</v>
-      </c>
-      <c s="5">
-        <v>245000</v>
-      </c>
-      <c s="5">
-        <v>105000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>11</v>
-      </c>
-      <c s="8" t="s">
-        <v>4</v>
-      </c>
-      <c s="5">
-        <v>700000</v>
-      </c>
-      <c s="5">
-        <v>490000</v>
-      </c>
-      <c s="5">
-        <v>210000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>12</v>
-      </c>
-      <c s="8" t="s">
-        <v>12</v>
-      </c>
-      <c s="5">
-        <v>600000</v>
-      </c>
-      <c s="5">
-        <v>420000</v>
-      </c>
-      <c s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>13</v>
-      </c>
-      <c s="8" t="s">
-        <v>18</v>
-      </c>
-      <c s="5">
-        <v>750000</v>
-      </c>
-      <c s="5">
-        <v>525000</v>
-      </c>
-      <c s="5">
-        <v>225000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>14</v>
-      </c>
-      <c s="8" t="s">
-        <v>27</v>
-      </c>
-      <c s="5">
-        <v>400000</v>
-      </c>
-      <c s="5">
-        <v>280000</v>
-      </c>
-      <c s="5">
-        <v>120000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>15</v>
-      </c>
-      <c s="8" t="s">
-        <v>5</v>
-      </c>
-      <c s="5">
-        <v>450000</v>
-      </c>
-      <c s="5">
-        <v>315000</v>
-      </c>
-      <c s="5">
-        <v>135000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>16</v>
-      </c>
-      <c s="8" t="s">
-        <v>13</v>
-      </c>
-      <c s="5">
-        <v>500000</v>
-      </c>
-      <c s="5">
-        <v>350000</v>
-      </c>
-      <c s="5">
-        <v>150000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>17</v>
-      </c>
-      <c s="8" t="s">
-        <v>19</v>
-      </c>
-      <c s="5">
-        <v>600000</v>
-      </c>
-      <c s="5">
-        <v>420000</v>
-      </c>
-      <c s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>18</v>
-      </c>
-      <c s="8" t="s">
-        <v>1</v>
-      </c>
-      <c s="5">
-        <v>550000</v>
-      </c>
-      <c s="5">
-        <v>385000</v>
-      </c>
-      <c s="5">
-        <v>165000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>19</v>
-      </c>
-      <c s="8" t="s">
-        <v>6</v>
-      </c>
-      <c s="5">
-        <v>700000</v>
-      </c>
-      <c s="5">
-        <v>490000</v>
-      </c>
-      <c s="5">
-        <v>210000</v>
-      </c>
-    </row>
-    <row ht="15.1">
-      <c s="8">
-        <v>20</v>
-      </c>
-      <c s="8" t="s">
-        <v>20</v>
-      </c>
-      <c s="5">
-        <v>300000</v>
-      </c>
-      <c s="5">
-        <v>210000</v>
-      </c>
-      <c s="5">
-        <v>90000</v>
-      </c>
+        <v>3615000</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="8"/>
+      <c s="8"/>
+      <c s="8"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="7"/>
     </row>
     <row ht="17.6">
-      <c s="9"/>
-      <c s="9"/>
-      <c s="6"/>
-      <c s="6"/>
-      <c s="6"/>
+      <c s="12"/>
+      <c s="12"/>
+      <c s="10"/>
+      <c s="10"/>
+      <c s="10"/>
+    </row>
+    <row>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+    </row>
+    <row>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+    </row>
+    <row>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+    </row>
+    <row>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
+      <c s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
